--- a/240514_Zachary_UDA03_Day03_T3_Excel.xlsx
+++ b/240514_Zachary_UDA03_Day03_T3_Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\UDA_Assignments\UDA_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B989EA-ADFC-4C52-8F1E-19F857067606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA6FD7-A895-47C6-B37C-9BA601853585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="870" firstSheet="12" activeTab="12" xr2:uid="{07D732A0-D32C-4FA6-87F0-47C2257B816D}"/>
   </bookViews>
@@ -38,30 +38,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -76,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="94">
   <si>
     <t>Product ID</t>
   </si>
@@ -355,13 +344,16 @@
   </si>
   <si>
     <t>Column5</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -509,8 +501,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CF3FAE8-7697-4FE2-AAD6-F23AF3225AA2}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <autoFilter ref="A1:E19" xr:uid="{6CF3FAE8-7697-4FE2-AAD6-F23AF3225AA2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
-    <sortCondition descending="1" ref="E1:E19"/>
+  <sortState ref="A2:E19">
+    <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AA580E0F-FC13-4496-ADFA-398706952B23}" name="Column1"/>
@@ -828,7 +820,7 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" customWidth="1"/>
@@ -843,7 +835,7 @@
     <col min="11" max="11" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>101</v>
       </c>
@@ -897,7 +889,7 @@
         <v>AP0101</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>102</v>
       </c>
@@ -914,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>103</v>
       </c>
@@ -937,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>104</v>
       </c>
@@ -961,7 +953,7 @@
         <v>Steve</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>105</v>
       </c>
@@ -978,7 +970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>106</v>
       </c>
@@ -995,7 +987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>107</v>
       </c>
@@ -1012,7 +1004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>108</v>
       </c>
@@ -1029,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>109</v>
       </c>
@@ -1046,7 +1038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>110</v>
       </c>
@@ -1063,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>111</v>
       </c>
@@ -1094,7 +1086,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" customWidth="1"/>
@@ -1103,7 +1095,7 @@
     <col min="9" max="9" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1162,7 +1154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1169,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>COUNT(E3:E12)</f>
         <v>10</v>
@@ -1294,7 +1286,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" customWidth="1"/>
@@ -1303,7 +1295,7 @@
     <col min="9" max="9" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1318,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1364,7 +1356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1378,7 +1370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1420,7 +1412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1448,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1462,7 +1454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1489,37 +1481,37 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>87</v>
       </c>
@@ -1530,37 +1522,37 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1573,18 +1565,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220C0C04-F765-43F1-8B12-0F1ACD3F3631}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1601,72 +1593,81 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
       <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>4562</v>
+      </c>
       <c r="E3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>456</v>
+      </c>
       <c r="E8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>5</v>
       </c>
@@ -1674,23 +1675,26 @@
         <f>MAX(Table1[Column5])</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>3</v>
       </c>
@@ -1711,15 +1715,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <f ca="1">TODAY()</f>
-        <v>45432</v>
+        <v>45440</v>
       </c>
       <c r="B3" s="14">
         <v>34438</v>
@@ -1729,23 +1733,23 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f ca="1">DAY(A3)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <f ca="1">DAY(TODAY())</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f ca="1">MONTH(TODAY())</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f ca="1">YEAR(TODAY())</f>
         <v>2024</v>
@@ -1765,7 +1769,7 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="7" max="7" width="4.19921875" customWidth="1"/>
@@ -1774,7 +1778,7 @@
     <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>48</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +1951,7 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" customWidth="1"/>
@@ -1962,7 +1966,7 @@
     <col min="11" max="11" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>101</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v xml:space="preserve">Rajesh </v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>102</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>103</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>104</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>Printer</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>105</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>106</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>107</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>108</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>109</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>110</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>46</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>48</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I29" s="7" t="s">
         <v>46</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I30" s="7" t="s">
         <v>47</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I31" s="7" t="s">
         <v>48</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I32" s="7" t="s">
         <v>45</v>
       </c>
@@ -2390,7 +2394,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" customWidth="1"/>
@@ -2405,7 +2409,7 @@
     <col min="11" max="11" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>101</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>102</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>103</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>104</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>105</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>106</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>107</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>108</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>109</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>110</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
@@ -2752,7 +2756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2766,14 +2770,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" customWidth="1"/>
     <col min="5" max="5" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>Raj_Singh</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>Rohit_Sharma</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>Suresh_Sharma</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>Anil_Kumar</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>Reena_Kumari</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>Anjali_Rajpoot</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>Deepak_Nehra</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2918,13 +2922,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="12.69921875" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E1" t="b">
         <v>1</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>Raj_Kumar_Singh</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>Rohit__Sharma</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>Suresh__Sharma</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>72</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>Ram_Singh_Tewatia</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>Reena__Kumari</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -3051,7 +3055,7 @@
         <v>Anjali_Kumari_Rajpoot</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>Deepak__Nehra</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3100,7 +3104,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.796875" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" customWidth="1"/>
@@ -3109,7 +3113,7 @@
     <col min="8" max="8" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3150,7 +3154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3275,7 +3279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
@@ -3289,13 +3293,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E14">
         <f>SUM(E3:E12)</f>
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>77</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>79</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>81</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>82</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>84</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E34">
         <f>SUM(E24:E33)</f>
         <v>286</v>
@@ -3481,7 +3485,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" customWidth="1"/>
@@ -3489,7 +3493,7 @@
     <col min="8" max="8" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
